--- a/HE/W_in_progress/AnalisiCodeT5225.xlsx
+++ b/HE/W_in_progress/AnalisiCodeT5225.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A18DCCEE-36AE-4A49-964C-83A8D7F160CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcd\Desktop\Tesi\Work\repo\Tesi_Generatore_VHDL\HE\W_in_progress\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CE7B77-74A6-470C-8236-332931C7BD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="336" yWindow="6336" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="1235">
   <si>
     <t>IN</t>
   </si>
@@ -3742,7 +3748,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3754,6 +3760,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3791,14 +3803,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4100,23 +4115,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" customWidth="1"/>
-    <col min="8" max="8" width="50.5703125" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="39.28515625" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1"/>
+    <col min="7" max="7" width="36.109375" customWidth="1"/>
+    <col min="8" max="8" width="50.5546875" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="39.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4151,7 +4166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4186,7 +4201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4224,7 +4239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -4259,7 +4274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -4294,7 +4309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -4332,7 +4347,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -4370,7 +4385,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -4405,7 +4420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -4443,7 +4458,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -4481,7 +4496,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -4516,7 +4531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -4551,7 +4566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -4586,7 +4601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -4621,7 +4636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -4656,7 +4671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -4691,7 +4706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -4726,7 +4741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -4761,7 +4776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -4796,7 +4811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -4831,7 +4846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -4866,7 +4881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -4901,7 +4916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -4936,7 +4951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>87</v>
       </c>
@@ -4971,7 +4986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -5006,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -5041,7 +5056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -5079,7 +5094,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -5114,7 +5129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>103</v>
       </c>
@@ -5149,7 +5164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>108</v>
       </c>
@@ -5184,7 +5199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -5219,7 +5234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>112</v>
       </c>
@@ -5254,7 +5269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>114</v>
       </c>
@@ -5289,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -5324,7 +5339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -5359,7 +5374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>120</v>
       </c>
@@ -5394,7 +5409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>122</v>
       </c>
@@ -5429,7 +5444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>124</v>
       </c>
@@ -5464,7 +5479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>126</v>
       </c>
@@ -5499,7 +5514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -5534,7 +5549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>133</v>
       </c>
@@ -5569,7 +5584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -5604,7 +5619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>137</v>
       </c>
@@ -5639,7 +5654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>139</v>
       </c>
@@ -5674,7 +5689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>141</v>
       </c>
@@ -5709,7 +5724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>145</v>
       </c>
@@ -5744,7 +5759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>147</v>
       </c>
@@ -5782,7 +5797,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>153</v>
       </c>
@@ -5817,7 +5832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>158</v>
       </c>
@@ -5852,7 +5867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>160</v>
       </c>
@@ -5887,7 +5902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>162</v>
       </c>
@@ -5922,7 +5937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>164</v>
       </c>
@@ -5957,7 +5972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>166</v>
       </c>
@@ -5995,7 +6010,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>168</v>
       </c>
@@ -6030,7 +6045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>170</v>
       </c>
@@ -6065,7 +6080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>172</v>
       </c>
@@ -6100,7 +6115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>174</v>
       </c>
@@ -6135,7 +6150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>176</v>
       </c>
@@ -6170,7 +6185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>178</v>
       </c>
@@ -6205,7 +6220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>180</v>
       </c>
@@ -6240,7 +6255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>185</v>
       </c>
@@ -6275,7 +6290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>187</v>
       </c>
@@ -6310,7 +6325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>189</v>
       </c>
@@ -6345,7 +6360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>191</v>
       </c>
@@ -6380,7 +6395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>196</v>
       </c>
@@ -6415,7 +6430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>197</v>
       </c>
@@ -6450,7 +6465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>202</v>
       </c>
@@ -6485,7 +6500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>206</v>
       </c>
@@ -6520,7 +6535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>208</v>
       </c>
@@ -6558,7 +6573,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>214</v>
       </c>
@@ -6593,7 +6608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>219</v>
       </c>
@@ -6628,7 +6643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>224</v>
       </c>
@@ -6666,7 +6681,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>230</v>
       </c>
@@ -6701,7 +6716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>235</v>
       </c>
@@ -6736,7 +6751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>237</v>
       </c>
@@ -6771,7 +6786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>239</v>
       </c>
@@ -6806,7 +6821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>242</v>
       </c>
@@ -6841,7 +6856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>244</v>
       </c>
@@ -6876,7 +6891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>246</v>
       </c>
@@ -6911,7 +6926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>248</v>
       </c>
@@ -6949,7 +6964,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>249</v>
       </c>
@@ -6984,7 +6999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>251</v>
       </c>
@@ -7022,7 +7037,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>257</v>
       </c>
@@ -7057,7 +7072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>259</v>
       </c>
@@ -7092,7 +7107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>261</v>
       </c>
@@ -7127,7 +7142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>263</v>
       </c>
@@ -7162,7 +7177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>265</v>
       </c>
@@ -7197,7 +7212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>267</v>
       </c>
@@ -7232,7 +7247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>272</v>
       </c>
@@ -7267,7 +7282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>276</v>
       </c>
@@ -7302,7 +7317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>278</v>
       </c>
@@ -7337,7 +7352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>280</v>
       </c>
@@ -7372,7 +7387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>276</v>
       </c>
@@ -7407,7 +7422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>282</v>
       </c>
@@ -7442,7 +7457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>284</v>
       </c>
@@ -7477,7 +7492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>286</v>
       </c>
@@ -7512,7 +7527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>288</v>
       </c>
@@ -7547,7 +7562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>290</v>
       </c>
@@ -7582,7 +7597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>291</v>
       </c>
@@ -7617,7 +7632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>292</v>
       </c>
@@ -7652,7 +7667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>294</v>
       </c>
@@ -7687,7 +7702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>296</v>
       </c>
@@ -7722,7 +7737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>298</v>
       </c>
@@ -7757,7 +7772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>300</v>
       </c>
@@ -7792,7 +7807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>305</v>
       </c>
@@ -7827,7 +7842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>307</v>
       </c>
@@ -7862,7 +7877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>311</v>
       </c>
@@ -7900,7 +7915,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>317</v>
       </c>
@@ -7935,7 +7950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>319</v>
       </c>
@@ -7970,7 +7985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>321</v>
       </c>
@@ -8008,7 +8023,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>327</v>
       </c>
@@ -8043,7 +8058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>329</v>
       </c>
@@ -8078,7 +8093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>327</v>
       </c>
@@ -8113,7 +8128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>331</v>
       </c>
@@ -8148,7 +8163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>333</v>
       </c>
@@ -8186,7 +8201,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>339</v>
       </c>
@@ -8221,7 +8236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>341</v>
       </c>
@@ -8256,7 +8271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>343</v>
       </c>
@@ -8291,7 +8306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>345</v>
       </c>
@@ -8326,7 +8341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>350</v>
       </c>
@@ -8361,7 +8376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>352</v>
       </c>
@@ -8396,7 +8411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>353</v>
       </c>
@@ -8431,7 +8446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>358</v>
       </c>
@@ -8466,7 +8481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>363</v>
       </c>
@@ -8501,7 +8516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>365</v>
       </c>
@@ -8536,7 +8551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>367</v>
       </c>
@@ -8571,7 +8586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>369</v>
       </c>
@@ -8606,7 +8621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>371</v>
       </c>
@@ -8641,7 +8656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>373</v>
       </c>
@@ -8679,7 +8694,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>379</v>
       </c>
@@ -8714,7 +8729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>380</v>
       </c>
@@ -8749,7 +8764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>382</v>
       </c>
@@ -8784,7 +8799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>387</v>
       </c>
@@ -8819,7 +8834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>389</v>
       </c>
@@ -8854,7 +8869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>391</v>
       </c>
@@ -8889,7 +8904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>393</v>
       </c>
@@ -8924,7 +8939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>398</v>
       </c>
@@ -8962,7 +8977,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>403</v>
       </c>
@@ -8997,7 +9012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>408</v>
       </c>
@@ -9032,7 +9047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>410</v>
       </c>
@@ -9067,7 +9082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>415</v>
       </c>
@@ -9102,7 +9117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>420</v>
       </c>
@@ -9137,7 +9152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>425</v>
       </c>
@@ -9172,7 +9187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>430</v>
       </c>
@@ -9207,7 +9222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>435</v>
       </c>
@@ -9242,7 +9257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>439</v>
       </c>
@@ -9277,7 +9292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>443</v>
       </c>
@@ -9312,7 +9327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>448</v>
       </c>
@@ -9347,7 +9362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>450</v>
       </c>
@@ -9382,7 +9397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>455</v>
       </c>
@@ -9417,7 +9432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>460</v>
       </c>
@@ -9455,7 +9470,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>466</v>
       </c>
@@ -9490,7 +9505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>471</v>
       </c>
@@ -9525,7 +9540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>473</v>
       </c>
@@ -9560,7 +9575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>475</v>
       </c>
@@ -9595,7 +9610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>477</v>
       </c>
@@ -9630,7 +9645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>479</v>
       </c>
@@ -9665,7 +9680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>481</v>
       </c>
@@ -9700,7 +9715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>485</v>
       </c>
@@ -9735,7 +9750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>490</v>
       </c>
@@ -9770,7 +9785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>495</v>
       </c>
@@ -9805,7 +9820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>497</v>
       </c>
@@ -9840,7 +9855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>499</v>
       </c>
@@ -9875,7 +9890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>501</v>
       </c>
@@ -9910,7 +9925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>503</v>
       </c>
@@ -9945,7 +9960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>505</v>
       </c>
@@ -9980,7 +9995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>507</v>
       </c>
@@ -10015,7 +10030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>512</v>
       </c>
@@ -10050,7 +10065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>514</v>
       </c>
@@ -10088,7 +10103,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>520</v>
       </c>
@@ -10123,7 +10138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>522</v>
       </c>
@@ -10158,7 +10173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>524</v>
       </c>
@@ -10193,7 +10208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>525</v>
       </c>
@@ -10228,7 +10243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>527</v>
       </c>
@@ -10263,7 +10278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>529</v>
       </c>
@@ -10301,7 +10316,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>535</v>
       </c>
@@ -10339,7 +10354,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>541</v>
       </c>
@@ -10374,7 +10389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>542</v>
       </c>
@@ -10409,7 +10424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:12">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>547</v>
       </c>
@@ -10444,7 +10459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>552</v>
       </c>
@@ -10479,7 +10494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>553</v>
       </c>
@@ -10514,7 +10529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>555</v>
       </c>
@@ -10552,7 +10567,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>560</v>
       </c>
@@ -10587,7 +10602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:12">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>562</v>
       </c>
@@ -10622,7 +10637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>564</v>
       </c>
@@ -10657,7 +10672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>566</v>
       </c>
@@ -10695,7 +10710,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>572</v>
       </c>
@@ -10730,7 +10745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>576</v>
       </c>
@@ -10768,7 +10783,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>582</v>
       </c>
@@ -10803,7 +10818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>587</v>
       </c>
@@ -10838,7 +10853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>589</v>
       </c>
@@ -10873,7 +10888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:12">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>591</v>
       </c>
@@ -10908,7 +10923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:12">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>593</v>
       </c>
@@ -10946,7 +10961,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>599</v>
       </c>
@@ -10981,7 +10996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>601</v>
       </c>
@@ -11016,7 +11031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>605</v>
       </c>
@@ -11051,7 +11066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:12">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>607</v>
       </c>
@@ -11086,7 +11101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:12">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>612</v>
       </c>
@@ -11121,7 +11136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:12">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>614</v>
       </c>
@@ -11159,7 +11174,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>620</v>
       </c>
@@ -11197,7 +11212,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>626</v>
       </c>
@@ -11235,7 +11250,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>632</v>
       </c>
@@ -11273,7 +11288,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="203" spans="1:12">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>637</v>
       </c>
@@ -11311,7 +11326,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="204" spans="1:12">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>643</v>
       </c>
@@ -11346,7 +11361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:12">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>648</v>
       </c>
@@ -11384,7 +11399,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="206" spans="1:12">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>654</v>
       </c>
@@ -11419,7 +11434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:12">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>659</v>
       </c>
@@ -11454,7 +11469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:12">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>660</v>
       </c>
@@ -11489,7 +11504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:12">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>662</v>
       </c>
@@ -11527,7 +11542,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="210" spans="1:12">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>668</v>
       </c>
@@ -11565,7 +11580,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="211" spans="1:12">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>674</v>
       </c>
@@ -11600,7 +11615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:12">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>676</v>
       </c>
@@ -11635,7 +11650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:12">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>678</v>
       </c>
@@ -11673,7 +11688,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="214" spans="1:12">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>683</v>
       </c>
@@ -11708,7 +11723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:12">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>685</v>
       </c>
@@ -11743,7 +11758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:12">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>687</v>
       </c>
@@ -11778,7 +11793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:12">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>689</v>
       </c>
@@ -11813,7 +11828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:12">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>691</v>
       </c>
@@ -11848,7 +11863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:12">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>693</v>
       </c>
@@ -11883,7 +11898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:12">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>695</v>
       </c>
@@ -11918,7 +11933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:12">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>697</v>
       </c>
@@ -11953,7 +11968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:12">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>699</v>
       </c>
@@ -11988,7 +12003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:12">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>701</v>
       </c>
@@ -12023,7 +12038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:12">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>703</v>
       </c>
@@ -12061,7 +12076,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="225" spans="1:12">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>709</v>
       </c>
@@ -12099,7 +12114,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="226" spans="1:12">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>715</v>
       </c>
@@ -12137,7 +12152,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="227" spans="1:12">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>721</v>
       </c>
@@ -12175,7 +12190,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="228" spans="1:12">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>727</v>
       </c>
@@ -12213,7 +12228,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="229" spans="1:12">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>733</v>
       </c>
@@ -12251,7 +12266,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="230" spans="1:12">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>739</v>
       </c>
@@ -12289,7 +12304,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="231" spans="1:12">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>744</v>
       </c>
@@ -12327,7 +12342,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="232" spans="1:12">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>750</v>
       </c>
@@ -12365,7 +12380,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="233" spans="1:12">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>756</v>
       </c>
@@ -12403,7 +12418,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="234" spans="1:12">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>762</v>
       </c>
@@ -12441,7 +12456,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="235" spans="1:12">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>768</v>
       </c>
@@ -12479,7 +12494,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="236" spans="1:12">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>774</v>
       </c>
@@ -12517,7 +12532,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="237" spans="1:12">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>779</v>
       </c>
@@ -12555,7 +12570,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="238" spans="1:12">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>785</v>
       </c>
@@ -12593,7 +12608,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="239" spans="1:12">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>791</v>
       </c>
@@ -12631,7 +12646,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="240" spans="1:12">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>797</v>
       </c>
@@ -12669,7 +12684,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="241" spans="1:12">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>803</v>
       </c>
@@ -12707,7 +12722,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="242" spans="1:12">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>809</v>
       </c>
@@ -12745,7 +12760,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="243" spans="1:12">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>815</v>
       </c>
@@ -12780,7 +12795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:12">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>820</v>
       </c>
@@ -12818,7 +12833,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="245" spans="1:12">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>826</v>
       </c>
@@ -12856,7 +12871,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="246" spans="1:12">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>832</v>
       </c>
@@ -12894,7 +12909,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="247" spans="1:12">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>838</v>
       </c>
@@ -12929,7 +12944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:12">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>843</v>
       </c>
@@ -12967,7 +12982,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="249" spans="1:12">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>849</v>
       </c>
@@ -13002,7 +13017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:12">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>854</v>
       </c>
@@ -13037,7 +13052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:12">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>859</v>
       </c>
@@ -13075,7 +13090,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="252" spans="1:12">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>865</v>
       </c>
@@ -13110,7 +13125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:12">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>870</v>
       </c>
@@ -13148,7 +13163,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="254" spans="1:12">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>876</v>
       </c>
@@ -13186,7 +13201,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="255" spans="1:12">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>880</v>
       </c>
@@ -13224,7 +13239,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="256" spans="1:12">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>886</v>
       </c>
@@ -13262,7 +13277,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="257" spans="1:12">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>892</v>
       </c>
@@ -13300,7 +13315,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="258" spans="1:12">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>897</v>
       </c>
@@ -13338,7 +13353,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="259" spans="1:12">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>903</v>
       </c>
@@ -13376,7 +13391,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="260" spans="1:12">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>909</v>
       </c>
@@ -13414,7 +13429,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="261" spans="1:12">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>915</v>
       </c>
@@ -13452,7 +13467,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="262" spans="1:12">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>921</v>
       </c>
@@ -13490,7 +13505,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="263" spans="1:12">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>927</v>
       </c>
@@ -13528,7 +13543,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="264" spans="1:12">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>933</v>
       </c>
@@ -13566,7 +13581,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="265" spans="1:12">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>939</v>
       </c>
@@ -13604,7 +13619,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="266" spans="1:12">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>945</v>
       </c>
@@ -13642,7 +13657,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="267" spans="1:12">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>951</v>
       </c>
@@ -13680,7 +13695,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="268" spans="1:12">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>957</v>
       </c>
@@ -13718,7 +13733,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="269" spans="1:12">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>963</v>
       </c>
@@ -13756,7 +13771,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="270" spans="1:12">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>969</v>
       </c>
@@ -13794,7 +13809,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="271" spans="1:12">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>975</v>
       </c>
@@ -13832,7 +13847,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="272" spans="1:12">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>981</v>
       </c>
@@ -13870,7 +13885,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="273" spans="1:12">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>987</v>
       </c>
@@ -13908,7 +13923,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="274" spans="1:12">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>993</v>
       </c>
@@ -13946,7 +13961,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="275" spans="1:12">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>999</v>
       </c>
@@ -13984,7 +13999,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="276" spans="1:12">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1005</v>
       </c>
@@ -14022,7 +14037,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="277" spans="1:12">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1011</v>
       </c>
@@ -14057,7 +14072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1016</v>
       </c>
@@ -14092,7 +14107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:12">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1018</v>
       </c>
@@ -14127,7 +14142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:12">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1023</v>
       </c>
@@ -14162,7 +14177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:12">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1028</v>
       </c>
@@ -14197,7 +14212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:12">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1030</v>
       </c>
@@ -14235,7 +14250,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="283" spans="1:12">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1036</v>
       </c>
@@ -14273,7 +14288,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>1042</v>
       </c>
@@ -14308,7 +14323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:12">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>1047</v>
       </c>
@@ -14343,7 +14358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:12">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>1052</v>
       </c>
@@ -14381,7 +14396,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="287" spans="1:12">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1057</v>
       </c>
@@ -14416,7 +14431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:12">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1062</v>
       </c>
@@ -14451,7 +14466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:12">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>1067</v>
       </c>
@@ -14486,7 +14501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:12">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>1072</v>
       </c>
@@ -14521,7 +14536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:12">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>1074</v>
       </c>
@@ -14556,7 +14571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:12">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1076</v>
       </c>
@@ -14591,7 +14606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:12">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1081</v>
       </c>
@@ -14626,7 +14641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:12">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>1085</v>
       </c>
@@ -14664,7 +14679,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="295" spans="1:12">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>1091</v>
       </c>
@@ -14702,7 +14717,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="296" spans="1:12">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1097</v>
       </c>
@@ -14737,7 +14752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:12">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>1102</v>
       </c>
@@ -14772,7 +14787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:12">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1104</v>
       </c>
@@ -14807,7 +14822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:12">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1108</v>
       </c>
@@ -14842,7 +14857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:12">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>1110</v>
       </c>
@@ -14880,7 +14895,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="301" spans="1:12">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>1115</v>
       </c>
@@ -14915,7 +14930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:12">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>1119</v>
       </c>
@@ -14950,7 +14965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:12">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>1124</v>
       </c>
@@ -14988,7 +15003,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="304" spans="1:12">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>1130</v>
       </c>
@@ -15026,7 +15041,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="305" spans="1:12">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>1135</v>
       </c>
@@ -15061,7 +15076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:12">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>1137</v>
       </c>
@@ -15099,7 +15114,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="307" spans="1:12">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>1142</v>
       </c>
@@ -15134,7 +15149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:12">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>1147</v>
       </c>
@@ -15169,7 +15184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:12">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>1152</v>
       </c>
@@ -15204,7 +15219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:12">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>1156</v>
       </c>
@@ -15239,7 +15254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:12">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>1158</v>
       </c>
@@ -15274,7 +15289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:12">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>1162</v>
       </c>
@@ -15309,7 +15324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:12">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>1164</v>
       </c>
@@ -15344,7 +15359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:12">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>1169</v>
       </c>
@@ -15382,7 +15397,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="315" spans="1:12">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>1175</v>
       </c>
@@ -15417,7 +15432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:12">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>1180</v>
       </c>
@@ -15455,7 +15470,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="317" spans="1:12">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>1186</v>
       </c>
@@ -15490,7 +15505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:12">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>1188</v>
       </c>
@@ -15528,7 +15543,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="319" spans="1:12">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>1194</v>
       </c>
@@ -15566,7 +15581,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="320" spans="1:12">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>1200</v>
       </c>
@@ -15601,7 +15616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:12">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>1202</v>
       </c>
@@ -15636,7 +15651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:12">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>1207</v>
       </c>
@@ -15671,7 +15686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:12">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>1212</v>
       </c>
@@ -15706,7 +15721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:12">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>1217</v>
       </c>
@@ -15741,7 +15756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:12">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>1222</v>
       </c>
@@ -15776,7 +15791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:12">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>1227</v>
       </c>
@@ -15814,7 +15829,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="327" spans="1:12">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>1233</v>
       </c>
@@ -15852,4 +15867,2965 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BA7170-CED1-4B6D-8831-11A25C6A2177}">
+  <dimension ref="A1:B327"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <f>VALUE(SUBSTITUTE(A2,".",","))</f>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="0">VALUE(SUBSTITUTE(A3,".",","))</f>
+        <v>0.85714285224489795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.68421052153739603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.53333332833580205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.91304347326086899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.80952380456916095</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.73469387260308205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.76923076426035497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.79999999499999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0.74999999500000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>0.93333332835555505</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>0.85714285224489795</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>0.90322580145681497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>0.54545454049586695</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>0.79999999499999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>0.54545454082644595</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>0.61538461041420101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>0.54545454082644595</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>0.66666666166666599</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>0.66666666172839495</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>0.39999999544999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B130" si="1">VALUE(SUBSTITUTE(A67,".",","))</f>
+        <v>0.79999999499999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>212</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="1"/>
+        <v>0.22222221722222199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>218</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="1"/>
+        <v>0.66666666222222204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>223</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="1"/>
+        <v>0.72727272264462794</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>228</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>234</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="1"/>
+        <v>0.76190475695011295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="1"/>
+        <v>0.93333332835555505</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>228</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>255</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="1"/>
+        <v>0.33333332833333301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>271</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="1"/>
+        <v>0.74999999531249995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>184</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="1"/>
+        <v>0.66666666166666599</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>304</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="1"/>
+        <v>0.83333332834876495</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>85</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="1"/>
+        <v>0.74999999500000003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>315</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="1"/>
+        <v>0.235294114048442</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>325</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="1"/>
+        <v>0.59999999520000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>337</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="1"/>
+        <v>0.28571428072562299</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>349</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="1"/>
+        <v>0.77777777277777704</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>357</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="1"/>
+        <v>0.91666666166666599</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>362</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="1"/>
+        <v>0.94999999499999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="1"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>377</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="1"/>
+        <v>0.71794871295200502</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>357</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="1"/>
+        <v>0.91666666166666599</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131">
+        <f t="shared" ref="B131:B194" si="2">VALUE(SUBSTITUTE(A131,".",","))</f>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>386</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="2"/>
+        <v>0.28571428081632599</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>14</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>14</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>397</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="2"/>
+        <v>0.46153845654174802</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>228</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>407</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="2"/>
+        <v>0.79999999502222197</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>414</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="2"/>
+        <v>0.61111110617283904</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>419</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="2"/>
+        <v>0.94444443944444401</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>424</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="2"/>
+        <v>0.89655171914387599</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>429</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="2"/>
+        <v>0.82352940678200703</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>434</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="2"/>
+        <v>0.74074073574759902</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>85</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="2"/>
+        <v>0.74999999500000003</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>442</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="2"/>
+        <v>0.54545454045913699</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>447</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="2"/>
+        <v>0.653846148846153</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>14</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>454</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="2"/>
+        <v>0.80952380452380901</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>459</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="2"/>
+        <v>0.78787878288337898</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>464</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="2"/>
+        <v>0.41666666222222198</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>470</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="2"/>
+        <v>0.93333332833333305</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>14</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>14</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>424</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="2"/>
+        <v>0.89655171914387599</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>489</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="2"/>
+        <v>0.85714285214693797</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>494</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="2"/>
+        <v>0.83870967242455696</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>14</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>14</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>14</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>14</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>511</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="2"/>
+        <v>0.85714285214285701</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>14</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>518</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="2"/>
+        <v>0.49999999555555502</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>14</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>14</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>511</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="2"/>
+        <v>0.85714285214285701</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>14</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>14</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>533</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="2"/>
+        <v>0.97872339925531904</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>539</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="2"/>
+        <v>0.44827585707491002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>14</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>546</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="2"/>
+        <v>0.777777772839506</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>551</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="2"/>
+        <v>0.352941171487889</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>546</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="2"/>
+        <v>0.777777772839506</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>14</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>228</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>14</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>14</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>14</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>570</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="2"/>
+        <v>0.28571428112244901</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>419</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="2"/>
+        <v>0.94444443944444401</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>580</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="2"/>
+        <v>0.59999999500000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>586</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="2"/>
+        <v>0.90909090409090898</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>14</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>14</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>14</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>597</v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="2"/>
+        <v>0.833333328435374</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>14</v>
+      </c>
+      <c r="B194">
+        <f t="shared" si="2"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>14</v>
+      </c>
+      <c r="B195">
+        <f t="shared" ref="B195:B258" si="3">VALUE(SUBSTITUTE(A195,".",","))</f>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>14</v>
+      </c>
+      <c r="B196">
+        <f t="shared" si="3"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>611</v>
+      </c>
+      <c r="B197">
+        <f t="shared" si="3"/>
+        <v>0.90909090409549997</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>14</v>
+      </c>
+      <c r="B198">
+        <f t="shared" si="3"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>618</v>
+      </c>
+      <c r="B199">
+        <f t="shared" si="3"/>
+        <v>0.45161289835587898</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>624</v>
+      </c>
+      <c r="B200">
+        <f t="shared" si="3"/>
+        <v>0.83333332833333296</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>630</v>
+      </c>
+      <c r="B201">
+        <f t="shared" si="3"/>
+        <v>0.64285713788265297</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>635</v>
+      </c>
+      <c r="B202">
+        <f t="shared" si="3"/>
+        <v>0.47619047120181401</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>641</v>
+      </c>
+      <c r="B203">
+        <f t="shared" si="3"/>
+        <v>0.45161289848074898</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>647</v>
+      </c>
+      <c r="B204">
+        <f t="shared" si="3"/>
+        <v>0.87499999500000003</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>652</v>
+      </c>
+      <c r="B205">
+        <f t="shared" si="3"/>
+        <v>0.48275861607015402</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>658</v>
+      </c>
+      <c r="B206">
+        <f t="shared" si="3"/>
+        <v>0.75862068466111698</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>658</v>
+      </c>
+      <c r="B207">
+        <f t="shared" si="3"/>
+        <v>0.75862068466111698</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>14</v>
+      </c>
+      <c r="B208">
+        <f t="shared" si="3"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>666</v>
+      </c>
+      <c r="B209">
+        <f t="shared" si="3"/>
+        <v>0.59999999502222201</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>672</v>
+      </c>
+      <c r="B210">
+        <f t="shared" si="3"/>
+        <v>0.35294117162629701</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>14</v>
+      </c>
+      <c r="B211">
+        <f t="shared" si="3"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>14</v>
+      </c>
+      <c r="B212">
+        <f t="shared" si="3"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>682</v>
+      </c>
+      <c r="B213">
+        <f t="shared" si="3"/>
+        <v>0.62499999500000003</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>14</v>
+      </c>
+      <c r="B214">
+        <f t="shared" si="3"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>14</v>
+      </c>
+      <c r="B215">
+        <f t="shared" si="3"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>14</v>
+      </c>
+      <c r="B216">
+        <f t="shared" si="3"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>14</v>
+      </c>
+      <c r="B217">
+        <f t="shared" si="3"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>14</v>
+      </c>
+      <c r="B218">
+        <f t="shared" si="3"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>14</v>
+      </c>
+      <c r="B219">
+        <f t="shared" si="3"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>14</v>
+      </c>
+      <c r="B220">
+        <f t="shared" si="3"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>14</v>
+      </c>
+      <c r="B221">
+        <f t="shared" si="3"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>14</v>
+      </c>
+      <c r="B222">
+        <f t="shared" si="3"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>14</v>
+      </c>
+      <c r="B223">
+        <f t="shared" si="3"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>707</v>
+      </c>
+      <c r="B224">
+        <f t="shared" si="3"/>
+        <v>0.59999999507812496</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>713</v>
+      </c>
+      <c r="B225">
+        <f t="shared" si="3"/>
+        <v>0.51162790204434805</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>719</v>
+      </c>
+      <c r="B226">
+        <f t="shared" si="3"/>
+        <v>0.59999999505000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>725</v>
+      </c>
+      <c r="B227">
+        <f t="shared" si="3"/>
+        <v>0.83185840211136297</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>731</v>
+      </c>
+      <c r="B228">
+        <f t="shared" si="3"/>
+        <v>0.46808510149388799</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>737</v>
+      </c>
+      <c r="B229">
+        <f t="shared" si="3"/>
+        <v>0.42105262659279702</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>195</v>
+      </c>
+      <c r="B230">
+        <f t="shared" si="3"/>
+        <v>0.66666666172839495</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>748</v>
+      </c>
+      <c r="B231">
+        <f t="shared" si="3"/>
+        <v>0.647058818560169</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>754</v>
+      </c>
+      <c r="B232">
+        <f t="shared" si="3"/>
+        <v>0.50943395728017005</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>760</v>
+      </c>
+      <c r="B233">
+        <f t="shared" si="3"/>
+        <v>0.68292682429506202</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>766</v>
+      </c>
+      <c r="B234">
+        <f t="shared" si="3"/>
+        <v>0.82352940676505904</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>772</v>
+      </c>
+      <c r="B235">
+        <f t="shared" si="3"/>
+        <v>0.37142856775102001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>778</v>
+      </c>
+      <c r="B236">
+        <f t="shared" si="3"/>
+        <v>0.87804877556216498</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>783</v>
+      </c>
+      <c r="B237">
+        <f t="shared" si="3"/>
+        <v>0.548387091795005</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>789</v>
+      </c>
+      <c r="B238">
+        <f t="shared" si="3"/>
+        <v>0.58064515629162305</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>795</v>
+      </c>
+      <c r="B239">
+        <f t="shared" si="3"/>
+        <v>0.54700854207027505</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>801</v>
+      </c>
+      <c r="B240">
+        <f t="shared" si="3"/>
+        <v>0.77669902414930703</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>807</v>
+      </c>
+      <c r="B241">
+        <f t="shared" si="3"/>
+        <v>0.37142856668979501</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>813</v>
+      </c>
+      <c r="B242">
+        <f t="shared" si="3"/>
+        <v>0.69387754612244901</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>819</v>
+      </c>
+      <c r="B243">
+        <f t="shared" si="3"/>
+        <v>0.849557517127418</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>824</v>
+      </c>
+      <c r="B244">
+        <f t="shared" si="3"/>
+        <v>0.75409835567723704</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>830</v>
+      </c>
+      <c r="B245">
+        <f t="shared" si="3"/>
+        <v>0.80392156363514</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>836</v>
+      </c>
+      <c r="B246">
+        <f t="shared" si="3"/>
+        <v>0.45614034591566599</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>842</v>
+      </c>
+      <c r="B247">
+        <f t="shared" si="3"/>
+        <v>0.71794871297830298</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>847</v>
+      </c>
+      <c r="B248">
+        <f t="shared" si="3"/>
+        <v>0.84782608195652098</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>853</v>
+      </c>
+      <c r="B249">
+        <f t="shared" si="3"/>
+        <v>0.88524589663934405</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>858</v>
+      </c>
+      <c r="B250">
+        <f t="shared" si="3"/>
+        <v>0.49999999504535098</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>863</v>
+      </c>
+      <c r="B251">
+        <f t="shared" si="3"/>
+        <v>0.54761904264455696</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>869</v>
+      </c>
+      <c r="B252">
+        <f t="shared" si="3"/>
+        <v>0.78160919040824395</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>874</v>
+      </c>
+      <c r="B253">
+        <f t="shared" si="3"/>
+        <v>0.479999995392</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>737</v>
+      </c>
+      <c r="B254">
+        <f t="shared" si="3"/>
+        <v>0.42105262659279702</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>884</v>
+      </c>
+      <c r="B255">
+        <f t="shared" si="3"/>
+        <v>0.709677414354838</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>890</v>
+      </c>
+      <c r="B256">
+        <f t="shared" si="3"/>
+        <v>0.28571428097550999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>896</v>
+      </c>
+      <c r="B257">
+        <f t="shared" si="3"/>
+        <v>0.60344827086355501</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>901</v>
+      </c>
+      <c r="B258">
+        <f t="shared" si="3"/>
+        <v>0.30434782119197601</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>907</v>
+      </c>
+      <c r="B259">
+        <f t="shared" ref="B259:B322" si="4">VALUE(SUBSTITUTE(A259,".",","))</f>
+        <v>0.2999999968</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>913</v>
+      </c>
+      <c r="B260">
+        <f t="shared" si="4"/>
+        <v>0.81999999500800003</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>919</v>
+      </c>
+      <c r="B261">
+        <f t="shared" si="4"/>
+        <v>0.74074073575418298</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>925</v>
+      </c>
+      <c r="B262">
+        <f t="shared" si="4"/>
+        <v>0.534482753626635</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>931</v>
+      </c>
+      <c r="B263">
+        <f t="shared" si="4"/>
+        <v>0.93023255313953401</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>937</v>
+      </c>
+      <c r="B264">
+        <f t="shared" si="4"/>
+        <v>0.48226949858860202</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>943</v>
+      </c>
+      <c r="B265">
+        <f t="shared" si="4"/>
+        <v>0.24999999570312501</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>949</v>
+      </c>
+      <c r="B266">
+        <f t="shared" si="4"/>
+        <v>0.50574712151671297</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>955</v>
+      </c>
+      <c r="B267">
+        <f t="shared" si="4"/>
+        <v>0.62399999516927995</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>961</v>
+      </c>
+      <c r="B268">
+        <f t="shared" si="4"/>
+        <v>0.55319148454504297</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>967</v>
+      </c>
+      <c r="B269">
+        <f t="shared" si="4"/>
+        <v>0.85416666166883604</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>973</v>
+      </c>
+      <c r="B270">
+        <f t="shared" si="4"/>
+        <v>0.820512815513185</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>979</v>
+      </c>
+      <c r="B271">
+        <f t="shared" si="4"/>
+        <v>0.55118109736251397</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>985</v>
+      </c>
+      <c r="B272">
+        <f t="shared" si="4"/>
+        <v>0.66086956021776899</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>991</v>
+      </c>
+      <c r="B273">
+        <f t="shared" si="4"/>
+        <v>0.74015747532271003</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>997</v>
+      </c>
+      <c r="B274">
+        <f t="shared" si="4"/>
+        <v>0.60273972144117005</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B275">
+        <f t="shared" si="4"/>
+        <v>0.407407403093278</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B276">
+        <f t="shared" si="4"/>
+        <v>0.79166666167534705</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B277">
+        <f t="shared" si="4"/>
+        <v>0.83333332836805496</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>14</v>
+      </c>
+      <c r="B278">
+        <f t="shared" si="4"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B279">
+        <f t="shared" si="4"/>
+        <v>0.571428566658163</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B280">
+        <f t="shared" si="4"/>
+        <v>0.95999999500800004</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>14</v>
+      </c>
+      <c r="B281">
+        <f t="shared" si="4"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B282">
+        <f t="shared" si="4"/>
+        <v>0.62745097540945804</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B283">
+        <f t="shared" si="4"/>
+        <v>0.72727272243801599</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B284">
+        <f t="shared" si="4"/>
+        <v>0.84210525817174497</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B285">
+        <f t="shared" si="4"/>
+        <v>0.94117646558823498</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>407</v>
+      </c>
+      <c r="B286">
+        <f t="shared" si="4"/>
+        <v>0.79999999502222197</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B287">
+        <f t="shared" si="4"/>
+        <v>0.88372092523526202</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B288">
+        <f t="shared" si="4"/>
+        <v>0.87804877551457405</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B289">
+        <f t="shared" si="4"/>
+        <v>0.67999999500800001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>14</v>
+      </c>
+      <c r="B290">
+        <f t="shared" si="4"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>14</v>
+      </c>
+      <c r="B291">
+        <f t="shared" si="4"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B292">
+        <f t="shared" si="4"/>
+        <v>0.80701753886118799</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>470</v>
+      </c>
+      <c r="B293">
+        <f t="shared" si="4"/>
+        <v>0.93333332833333305</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B294">
+        <f t="shared" si="4"/>
+        <v>0.84210525821329596</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B295">
+        <f t="shared" si="4"/>
+        <v>0.84848484348943998</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B296">
+        <f t="shared" si="4"/>
+        <v>0.95999999499999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>14</v>
+      </c>
+      <c r="B297">
+        <f t="shared" si="4"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>429</v>
+      </c>
+      <c r="B298">
+        <f t="shared" si="4"/>
+        <v>0.82352940678200703</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299">
+        <f t="shared" si="4"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B300">
+        <f t="shared" si="4"/>
+        <v>0.65306121950853802</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>511</v>
+      </c>
+      <c r="B301">
+        <f t="shared" si="4"/>
+        <v>0.85714285214285701</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B302">
+        <f t="shared" si="4"/>
+        <v>0.93333332833580196</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B303">
+        <f t="shared" si="4"/>
+        <v>0.74285713789387697</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B304">
+        <f t="shared" si="4"/>
+        <v>0.69387754618908704</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305">
+        <f t="shared" si="4"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B306">
+        <f t="shared" si="4"/>
+        <v>0.84210525817174497</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B307">
+        <f t="shared" si="4"/>
+        <v>0.90476189976190402</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B308">
+        <f t="shared" si="4"/>
+        <v>0.97222221722222202</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B309">
+        <f t="shared" si="4"/>
+        <v>0.94117646558823498</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>14</v>
+      </c>
+      <c r="B310">
+        <f t="shared" si="4"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>107</v>
+      </c>
+      <c r="B311">
+        <f t="shared" si="4"/>
+        <v>0.90322580145681497</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>14</v>
+      </c>
+      <c r="B312">
+        <f t="shared" si="4"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B313">
+        <f t="shared" si="4"/>
+        <v>0.92307691807692305</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B314">
+        <f t="shared" si="4"/>
+        <v>0.86274509308727398</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B315">
+        <f t="shared" si="4"/>
+        <v>0.70588234794309801</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B316">
+        <f t="shared" si="4"/>
+        <v>0.89552238306972598</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>14</v>
+      </c>
+      <c r="B317">
+        <f t="shared" si="4"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B318">
+        <f t="shared" si="4"/>
+        <v>0.48780487305175402</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B319">
+        <f t="shared" si="4"/>
+        <v>0.58333332864583298</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>14</v>
+      </c>
+      <c r="B320">
+        <f t="shared" si="4"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B321">
+        <f t="shared" si="4"/>
+        <v>0.90566037236026997</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B322">
+        <f t="shared" si="4"/>
+        <v>0.92857142357142797</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B323">
+        <f t="shared" ref="B323:B327" si="5">VALUE(SUBSTITUTE(A323,".",","))</f>
+        <v>0.96551723637930997</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B324">
+        <f t="shared" si="5"/>
+        <v>0.95652173413043395</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B325">
+        <f t="shared" si="5"/>
+        <v>0.73913042978260801</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B326">
+        <f t="shared" si="5"/>
+        <v>0.89999999501250005</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>14</v>
+      </c>
+      <c r="B327">
+        <f t="shared" si="5"/>
+        <v>0.99999999500000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HE/W_in_progress/AnalisiCodeT5225.xlsx
+++ b/HE/W_in_progress/AnalisiCodeT5225.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcd\Desktop\Tesi\Work\repo\Tesi_Generatore_VHDL\HE\W_in_progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CE7B77-74A6-470C-8236-332931C7BD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9147A751-BFF6-4388-AE3F-255605C0EFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="336" yWindow="6336" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-348" yWindow="1404" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="1236">
   <si>
     <t>IN</t>
   </si>
@@ -3742,6 +3742,9 @@
   </si>
   <si>
     <t>wait for 10 ns; cs_o : out std_logic;</t>
+  </si>
+  <si>
+    <t>SBERT_M</t>
   </si>
 </sst>
 </file>
@@ -4113,10 +4116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L327"/>
+  <dimension ref="A1:M327"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4128,10 +4131,10 @@
     <col min="8" max="8" width="50.5546875" customWidth="1"/>
     <col min="9" max="9" width="25.6640625" customWidth="1"/>
     <col min="10" max="10" width="39.33203125" customWidth="1"/>
-    <col min="11" max="11" width="19.88671875" customWidth="1"/>
+    <col min="12" max="12" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4163,10 +4166,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4198,10 +4204,13 @@
         <v>14</v>
       </c>
       <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4233,13 +4242,16 @@
         <v>19</v>
       </c>
       <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
+        <v>0.79690897464752197</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -4271,10 +4283,13 @@
         <v>14</v>
       </c>
       <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -4306,10 +4321,13 @@
         <v>14</v>
       </c>
       <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -4341,13 +4359,16 @@
         <v>29</v>
       </c>
       <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
+        <v>0.97172045707702637</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -4379,13 +4400,16 @@
         <v>35</v>
       </c>
       <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
+        <v>0.97809362411499023</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -4417,10 +4441,13 @@
         <v>41</v>
       </c>
       <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -4452,13 +4479,16 @@
         <v>45</v>
       </c>
       <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
+        <v>0.94637870788574219</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -4490,13 +4520,16 @@
         <v>51</v>
       </c>
       <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
+        <v>0.98400509357452393</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -4528,10 +4561,13 @@
         <v>14</v>
       </c>
       <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -4565,8 +4601,11 @@
       <c r="K12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -4600,8 +4639,11 @@
       <c r="K13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -4633,10 +4675,13 @@
         <v>14</v>
       </c>
       <c r="K14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999982118606567</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -4668,10 +4713,13 @@
         <v>14</v>
       </c>
       <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -4703,10 +4751,13 @@
         <v>67</v>
       </c>
       <c r="K16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -4738,10 +4789,13 @@
         <v>72</v>
       </c>
       <c r="K17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.98839724063873291</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -4775,8 +4829,11 @@
       <c r="K18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -4808,10 +4865,13 @@
         <v>14</v>
       </c>
       <c r="K19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -4843,10 +4903,13 @@
         <v>14</v>
       </c>
       <c r="K20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -4880,8 +4943,11 @@
       <c r="K21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -4915,8 +4981,11 @@
       <c r="K22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -4948,10 +5017,13 @@
         <v>14</v>
       </c>
       <c r="K23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>87</v>
       </c>
@@ -4983,10 +5055,13 @@
         <v>14</v>
       </c>
       <c r="K24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -5018,10 +5093,13 @@
         <v>14</v>
       </c>
       <c r="K25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999982118606567</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -5055,8 +5133,11 @@
       <c r="K26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -5088,13 +5169,16 @@
         <v>97</v>
       </c>
       <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27" t="s">
+        <v>0.98040872812271118</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -5126,10 +5210,13 @@
         <v>19</v>
       </c>
       <c r="K28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.9722365140914917</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>103</v>
       </c>
@@ -5161,10 +5248,13 @@
         <v>107</v>
       </c>
       <c r="K29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>108</v>
       </c>
@@ -5198,8 +5288,11 @@
       <c r="K30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -5231,10 +5324,13 @@
         <v>14</v>
       </c>
       <c r="K31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>112</v>
       </c>
@@ -5268,8 +5364,11 @@
       <c r="K32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>114</v>
       </c>
@@ -5301,10 +5400,13 @@
         <v>14</v>
       </c>
       <c r="K33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -5338,8 +5440,11 @@
       <c r="K34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -5373,8 +5478,11 @@
       <c r="K35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>120</v>
       </c>
@@ -5406,10 +5514,13 @@
         <v>14</v>
       </c>
       <c r="K36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>122</v>
       </c>
@@ -5443,8 +5554,11 @@
       <c r="K37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>124</v>
       </c>
@@ -5476,10 +5590,13 @@
         <v>14</v>
       </c>
       <c r="K38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>126</v>
       </c>
@@ -5513,8 +5630,11 @@
       <c r="K39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -5548,8 +5668,11 @@
       <c r="K40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>133</v>
       </c>
@@ -5581,10 +5704,13 @@
         <v>14</v>
       </c>
       <c r="K41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -5616,10 +5742,13 @@
         <v>14</v>
       </c>
       <c r="K42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>137</v>
       </c>
@@ -5651,10 +5780,13 @@
         <v>14</v>
       </c>
       <c r="K43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>139</v>
       </c>
@@ -5686,10 +5818,13 @@
         <v>14</v>
       </c>
       <c r="K44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>141</v>
       </c>
@@ -5721,10 +5856,13 @@
         <v>72</v>
       </c>
       <c r="K45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.98834908008575439</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>145</v>
       </c>
@@ -5756,10 +5894,13 @@
         <v>14</v>
       </c>
       <c r="K46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>147</v>
       </c>
@@ -5791,13 +5932,16 @@
         <v>151</v>
       </c>
       <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47" t="s">
+        <v>0.85540342330932617</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>153</v>
       </c>
@@ -5829,10 +5973,13 @@
         <v>157</v>
       </c>
       <c r="K48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>158</v>
       </c>
@@ -5866,8 +6013,11 @@
       <c r="K49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>160</v>
       </c>
@@ -5901,8 +6051,11 @@
       <c r="K50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>162</v>
       </c>
@@ -5934,10 +6087,13 @@
         <v>14</v>
       </c>
       <c r="K51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>164</v>
       </c>
@@ -5971,8 +6127,11 @@
       <c r="K52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>166</v>
       </c>
@@ -6004,13 +6163,16 @@
         <v>151</v>
       </c>
       <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53" t="s">
+        <v>0.85540342330932617</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>168</v>
       </c>
@@ -6042,10 +6204,13 @@
         <v>14</v>
       </c>
       <c r="K54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>170</v>
       </c>
@@ -6077,10 +6242,13 @@
         <v>14</v>
       </c>
       <c r="K55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>172</v>
       </c>
@@ -6114,8 +6282,11 @@
       <c r="K56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>174</v>
       </c>
@@ -6149,8 +6320,11 @@
       <c r="K57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>176</v>
       </c>
@@ -6184,8 +6358,11 @@
       <c r="K58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>178</v>
       </c>
@@ -6219,8 +6396,11 @@
       <c r="K59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>180</v>
       </c>
@@ -6254,8 +6434,11 @@
       <c r="K60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>185</v>
       </c>
@@ -6287,10 +6470,13 @@
         <v>14</v>
       </c>
       <c r="K61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>187</v>
       </c>
@@ -6322,10 +6508,13 @@
         <v>14</v>
       </c>
       <c r="K62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999982118606567</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>189</v>
       </c>
@@ -6357,10 +6546,13 @@
         <v>14</v>
       </c>
       <c r="K63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999982118606567</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>191</v>
       </c>
@@ -6392,10 +6584,13 @@
         <v>195</v>
       </c>
       <c r="K64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>196</v>
       </c>
@@ -6427,10 +6622,13 @@
         <v>14</v>
       </c>
       <c r="K65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>197</v>
       </c>
@@ -6462,10 +6660,13 @@
         <v>201</v>
       </c>
       <c r="K66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>202</v>
       </c>
@@ -6499,8 +6700,11 @@
       <c r="K67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>206</v>
       </c>
@@ -6532,10 +6736,13 @@
         <v>14</v>
       </c>
       <c r="K68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>208</v>
       </c>
@@ -6567,13 +6774,16 @@
         <v>212</v>
       </c>
       <c r="K69">
-        <v>1</v>
-      </c>
-      <c r="L69" t="s">
+        <v>0.98344147205352783</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>214</v>
       </c>
@@ -6605,10 +6815,13 @@
         <v>218</v>
       </c>
       <c r="K70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.9376872181892395</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>219</v>
       </c>
@@ -6640,10 +6853,13 @@
         <v>223</v>
       </c>
       <c r="K71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.93708515167236328</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>224</v>
       </c>
@@ -6675,13 +6891,16 @@
         <v>228</v>
       </c>
       <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72" t="s">
+        <v>0.61912357807159424</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>230</v>
       </c>
@@ -6713,10 +6932,13 @@
         <v>234</v>
       </c>
       <c r="K73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.89841461181640625</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>235</v>
       </c>
@@ -6750,8 +6972,11 @@
       <c r="K74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>237</v>
       </c>
@@ -6785,8 +7010,11 @@
       <c r="K75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>239</v>
       </c>
@@ -6820,8 +7048,11 @@
       <c r="K76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>242</v>
       </c>
@@ -6853,10 +7084,13 @@
         <v>14</v>
       </c>
       <c r="K77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>244</v>
       </c>
@@ -6888,10 +7122,13 @@
         <v>14</v>
       </c>
       <c r="K78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>246</v>
       </c>
@@ -6925,8 +7162,11 @@
       <c r="K79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>248</v>
       </c>
@@ -6958,13 +7198,16 @@
         <v>228</v>
       </c>
       <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80" t="s">
+        <v>0.61912357807159424</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>249</v>
       </c>
@@ -6998,8 +7241,11 @@
       <c r="K81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>251</v>
       </c>
@@ -7031,13 +7277,16 @@
         <v>255</v>
       </c>
       <c r="K82">
-        <v>1</v>
-      </c>
-      <c r="L82" t="s">
+        <v>0.89737504720687866</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>257</v>
       </c>
@@ -7069,10 +7318,13 @@
         <v>14</v>
       </c>
       <c r="K83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>259</v>
       </c>
@@ -7106,8 +7358,11 @@
       <c r="K84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>261</v>
       </c>
@@ -7139,10 +7394,13 @@
         <v>14</v>
       </c>
       <c r="K85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.9999997615814209</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>263</v>
       </c>
@@ -7174,10 +7432,13 @@
         <v>14</v>
       </c>
       <c r="K86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>265</v>
       </c>
@@ -7209,10 +7470,13 @@
         <v>14</v>
       </c>
       <c r="K87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>267</v>
       </c>
@@ -7244,10 +7508,13 @@
         <v>271</v>
       </c>
       <c r="K88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.78641307353973389</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>272</v>
       </c>
@@ -7279,10 +7546,13 @@
         <v>184</v>
       </c>
       <c r="K89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>276</v>
       </c>
@@ -7314,10 +7584,13 @@
         <v>14</v>
       </c>
       <c r="K90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>278</v>
       </c>
@@ -7349,10 +7622,13 @@
         <v>14</v>
       </c>
       <c r="K91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>280</v>
       </c>
@@ -7384,10 +7660,13 @@
         <v>14</v>
       </c>
       <c r="K92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>276</v>
       </c>
@@ -7419,10 +7698,13 @@
         <v>14</v>
       </c>
       <c r="K93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>282</v>
       </c>
@@ -7454,10 +7736,13 @@
         <v>14</v>
       </c>
       <c r="K94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>284</v>
       </c>
@@ -7491,8 +7776,11 @@
       <c r="K95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>286</v>
       </c>
@@ -7524,10 +7812,13 @@
         <v>14</v>
       </c>
       <c r="K96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>288</v>
       </c>
@@ -7561,8 +7852,11 @@
       <c r="K97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>290</v>
       </c>
@@ -7594,10 +7888,13 @@
         <v>14</v>
       </c>
       <c r="K98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>291</v>
       </c>
@@ -7629,10 +7926,13 @@
         <v>14</v>
       </c>
       <c r="K99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>292</v>
       </c>
@@ -7664,10 +7964,13 @@
         <v>14</v>
       </c>
       <c r="K100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>294</v>
       </c>
@@ -7701,8 +8004,11 @@
       <c r="K101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>296</v>
       </c>
@@ -7736,8 +8042,11 @@
       <c r="K102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>298</v>
       </c>
@@ -7771,8 +8080,11 @@
       <c r="K103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>300</v>
       </c>
@@ -7804,10 +8116,13 @@
         <v>304</v>
       </c>
       <c r="K104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99949663877487183</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>305</v>
       </c>
@@ -7841,8 +8156,11 @@
       <c r="K105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>307</v>
       </c>
@@ -7874,10 +8192,13 @@
         <v>85</v>
       </c>
       <c r="K106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.92980355024337769</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>311</v>
       </c>
@@ -7909,13 +8230,16 @@
         <v>315</v>
       </c>
       <c r="K107">
-        <v>0</v>
-      </c>
-      <c r="L107" t="s">
+        <v>0.5536806583404541</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>317</v>
       </c>
@@ -7947,10 +8271,13 @@
         <v>14</v>
       </c>
       <c r="K108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>319</v>
       </c>
@@ -7984,8 +8311,11 @@
       <c r="K109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>321</v>
       </c>
@@ -8017,13 +8347,16 @@
         <v>325</v>
       </c>
       <c r="K110">
-        <v>1</v>
-      </c>
-      <c r="L110" t="s">
+        <v>0.73491877317428589</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>327</v>
       </c>
@@ -8055,10 +8388,13 @@
         <v>14</v>
       </c>
       <c r="K111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>329</v>
       </c>
@@ -8090,10 +8426,13 @@
         <v>14</v>
       </c>
       <c r="K112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>327</v>
       </c>
@@ -8125,10 +8464,13 @@
         <v>14</v>
       </c>
       <c r="K113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>331</v>
       </c>
@@ -8160,10 +8502,13 @@
         <v>14</v>
       </c>
       <c r="K114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>333</v>
       </c>
@@ -8195,13 +8540,16 @@
         <v>337</v>
       </c>
       <c r="K115">
-        <v>0</v>
-      </c>
-      <c r="L115" t="s">
+        <v>0.81290405988693237</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>339</v>
       </c>
@@ -8233,10 +8581,13 @@
         <v>14</v>
       </c>
       <c r="K116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>341</v>
       </c>
@@ -8270,8 +8621,11 @@
       <c r="K117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>343</v>
       </c>
@@ -8303,10 +8657,13 @@
         <v>14</v>
       </c>
       <c r="K118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>345</v>
       </c>
@@ -8338,10 +8695,13 @@
         <v>349</v>
       </c>
       <c r="K119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.96847188472747803</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>350</v>
       </c>
@@ -8373,10 +8733,13 @@
         <v>14</v>
       </c>
       <c r="K120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>352</v>
       </c>
@@ -8408,10 +8771,13 @@
         <v>14</v>
       </c>
       <c r="K121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>353</v>
       </c>
@@ -8443,10 +8809,13 @@
         <v>357</v>
       </c>
       <c r="K122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99568814039230347</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>358</v>
       </c>
@@ -8480,8 +8849,11 @@
       <c r="K123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>363</v>
       </c>
@@ -8513,10 +8885,13 @@
         <v>14</v>
       </c>
       <c r="K124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>365</v>
       </c>
@@ -8550,8 +8925,11 @@
       <c r="K125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>367</v>
       </c>
@@ -8585,8 +8963,11 @@
       <c r="K126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>369</v>
       </c>
@@ -8620,8 +9001,11 @@
       <c r="K127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>371</v>
       </c>
@@ -8653,10 +9037,13 @@
         <v>14</v>
       </c>
       <c r="K128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>373</v>
       </c>
@@ -8688,13 +9075,16 @@
         <v>377</v>
       </c>
       <c r="K129">
-        <v>0</v>
-      </c>
-      <c r="L129" t="s">
+        <v>0.91279304027557373</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>379</v>
       </c>
@@ -8726,10 +9116,13 @@
         <v>357</v>
       </c>
       <c r="K130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99568814039230347</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>380</v>
       </c>
@@ -8763,8 +9156,11 @@
       <c r="K131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>382</v>
       </c>
@@ -8796,10 +9192,13 @@
         <v>386</v>
       </c>
       <c r="K132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.98546469211578369</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>387</v>
       </c>
@@ -8831,10 +9230,13 @@
         <v>14</v>
       </c>
       <c r="K133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>389</v>
       </c>
@@ -8868,8 +9270,11 @@
       <c r="K134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>391</v>
       </c>
@@ -8901,10 +9306,13 @@
         <v>14</v>
       </c>
       <c r="K135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>393</v>
       </c>
@@ -8936,10 +9344,13 @@
         <v>397</v>
       </c>
       <c r="K136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>398</v>
       </c>
@@ -8971,13 +9382,16 @@
         <v>228</v>
       </c>
       <c r="K137">
-        <v>0</v>
-      </c>
-      <c r="L137" t="s">
+        <v>0.54607981443405151</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>403</v>
       </c>
@@ -9009,10 +9423,13 @@
         <v>407</v>
       </c>
       <c r="K138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>408</v>
       </c>
@@ -9046,8 +9463,11 @@
       <c r="K139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>410</v>
       </c>
@@ -9079,10 +9499,13 @@
         <v>414</v>
       </c>
       <c r="K140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99366569519042969</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>415</v>
       </c>
@@ -9116,8 +9539,11 @@
       <c r="K141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>420</v>
       </c>
@@ -9151,8 +9577,11 @@
       <c r="K142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>425</v>
       </c>
@@ -9184,10 +9613,13 @@
         <v>429</v>
       </c>
       <c r="K143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>430</v>
       </c>
@@ -9219,10 +9651,13 @@
         <v>434</v>
       </c>
       <c r="K144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.98129427433013916</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>435</v>
       </c>
@@ -9254,10 +9689,13 @@
         <v>85</v>
       </c>
       <c r="K145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.9872126579284668</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>439</v>
       </c>
@@ -9289,10 +9727,13 @@
         <v>442</v>
       </c>
       <c r="K146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.9872126579284668</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>443</v>
       </c>
@@ -9324,10 +9765,13 @@
         <v>447</v>
       </c>
       <c r="K147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99746477603912354</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>448</v>
       </c>
@@ -9359,10 +9803,13 @@
         <v>14</v>
       </c>
       <c r="K148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>450</v>
       </c>
@@ -9394,10 +9841,13 @@
         <v>454</v>
       </c>
       <c r="K149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.98553639650344849</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>455</v>
       </c>
@@ -9429,10 +9879,13 @@
         <v>459</v>
       </c>
       <c r="K150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.96172678470611572</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>460</v>
       </c>
@@ -9464,13 +9917,16 @@
         <v>464</v>
       </c>
       <c r="K151">
-        <v>0</v>
-      </c>
-      <c r="L151" t="s">
+        <v>0.88897418975830078</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>466</v>
       </c>
@@ -9504,8 +9960,11 @@
       <c r="K152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>471</v>
       </c>
@@ -9539,8 +9998,11 @@
       <c r="K153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>473</v>
       </c>
@@ -9572,10 +10034,13 @@
         <v>14</v>
       </c>
       <c r="K154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>475</v>
       </c>
@@ -9609,8 +10074,11 @@
       <c r="K155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>477</v>
       </c>
@@ -9642,10 +10110,13 @@
         <v>14</v>
       </c>
       <c r="K156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>479</v>
       </c>
@@ -9679,8 +10150,11 @@
       <c r="K157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>481</v>
       </c>
@@ -9714,8 +10188,11 @@
       <c r="K158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>485</v>
       </c>
@@ -9749,8 +10226,11 @@
       <c r="K159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>490</v>
       </c>
@@ -9784,8 +10264,11 @@
       <c r="K160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>495</v>
       </c>
@@ -9817,10 +10300,13 @@
         <v>14</v>
       </c>
       <c r="K161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>497</v>
       </c>
@@ -9852,10 +10338,13 @@
         <v>14</v>
       </c>
       <c r="K162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>499</v>
       </c>
@@ -9887,10 +10376,13 @@
         <v>14</v>
       </c>
       <c r="K163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>501</v>
       </c>
@@ -9922,10 +10414,13 @@
         <v>14</v>
       </c>
       <c r="K164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>503</v>
       </c>
@@ -9959,8 +10454,11 @@
       <c r="K165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>505</v>
       </c>
@@ -9992,10 +10490,13 @@
         <v>14</v>
       </c>
       <c r="K166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>507</v>
       </c>
@@ -10027,10 +10528,13 @@
         <v>511</v>
       </c>
       <c r="K167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.74801415205001831</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>512</v>
       </c>
@@ -10064,8 +10568,11 @@
       <c r="K168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>514</v>
       </c>
@@ -10097,13 +10604,16 @@
         <v>518</v>
       </c>
       <c r="K169">
-        <v>1</v>
-      </c>
-      <c r="L169" t="s">
+        <v>0.88810169696807861</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>520</v>
       </c>
@@ -10137,8 +10647,11 @@
       <c r="K170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>522</v>
       </c>
@@ -10172,8 +10685,11 @@
       <c r="K171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>524</v>
       </c>
@@ -10205,10 +10721,13 @@
         <v>511</v>
       </c>
       <c r="K172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.74801415205001831</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>525</v>
       </c>
@@ -10242,8 +10761,11 @@
       <c r="K173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>527</v>
       </c>
@@ -10275,10 +10797,13 @@
         <v>14</v>
       </c>
       <c r="K174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>529</v>
       </c>
@@ -10310,13 +10835,16 @@
         <v>533</v>
       </c>
       <c r="K175">
-        <v>1</v>
-      </c>
-      <c r="L175" t="s">
+        <v>0.99731087684631348</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>535</v>
       </c>
@@ -10348,13 +10876,16 @@
         <v>539</v>
       </c>
       <c r="K176">
-        <v>1</v>
-      </c>
-      <c r="L176" t="s">
+        <v>0.93378669023513794</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>541</v>
       </c>
@@ -10386,10 +10917,13 @@
         <v>14</v>
       </c>
       <c r="K177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>542</v>
       </c>
@@ -10423,8 +10957,11 @@
       <c r="K178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>547</v>
       </c>
@@ -10456,10 +10993,13 @@
         <v>551</v>
       </c>
       <c r="K179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>552</v>
       </c>
@@ -10493,8 +11033,11 @@
       <c r="K180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>553</v>
       </c>
@@ -10526,10 +11069,13 @@
         <v>14</v>
       </c>
       <c r="K181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>555</v>
       </c>
@@ -10561,13 +11107,16 @@
         <v>228</v>
       </c>
       <c r="K182">
-        <v>1</v>
-      </c>
-      <c r="L182" t="s">
+        <v>0.83402848243713379</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>560</v>
       </c>
@@ -10601,8 +11150,11 @@
       <c r="K183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>562</v>
       </c>
@@ -10636,8 +11188,11 @@
       <c r="K184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>564</v>
       </c>
@@ -10669,10 +11224,13 @@
         <v>14</v>
       </c>
       <c r="K185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>566</v>
       </c>
@@ -10704,13 +11262,16 @@
         <v>570</v>
       </c>
       <c r="K186">
-        <v>1</v>
-      </c>
-      <c r="L186" t="s">
+        <v>0.97742354869842529</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>572</v>
       </c>
@@ -10742,10 +11303,13 @@
         <v>419</v>
       </c>
       <c r="K187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99960684776306152</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>576</v>
       </c>
@@ -10777,13 +11341,16 @@
         <v>580</v>
       </c>
       <c r="K188">
-        <v>0</v>
-      </c>
-      <c r="L188" t="s">
+        <v>0.93692392110824585</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>582</v>
       </c>
@@ -10815,10 +11382,13 @@
         <v>586</v>
       </c>
       <c r="K189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99871635437011719</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>587</v>
       </c>
@@ -10850,10 +11420,13 @@
         <v>14</v>
       </c>
       <c r="K190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>589</v>
       </c>
@@ -10887,8 +11460,11 @@
       <c r="K191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>591</v>
       </c>
@@ -10922,8 +11498,11 @@
       <c r="K192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>593</v>
       </c>
@@ -10957,11 +11536,14 @@
       <c r="K193">
         <v>1</v>
       </c>
-      <c r="L193" t="s">
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>599</v>
       </c>
@@ -10993,10 +11575,13 @@
         <v>14</v>
       </c>
       <c r="K194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>601</v>
       </c>
@@ -11028,10 +11613,13 @@
         <v>14</v>
       </c>
       <c r="K195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99901652336120605</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>605</v>
       </c>
@@ -11065,8 +11653,11 @@
       <c r="K196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>607</v>
       </c>
@@ -11098,10 +11689,13 @@
         <v>611</v>
       </c>
       <c r="K197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>612</v>
       </c>
@@ -11133,10 +11727,13 @@
         <v>14</v>
       </c>
       <c r="K198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>614</v>
       </c>
@@ -11168,13 +11765,16 @@
         <v>618</v>
       </c>
       <c r="K199">
-        <v>0</v>
-      </c>
-      <c r="L199" t="s">
+        <v>0.88646936416625977</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>620</v>
       </c>
@@ -11206,13 +11806,16 @@
         <v>624</v>
       </c>
       <c r="K200">
-        <v>0</v>
-      </c>
-      <c r="L200" t="s">
+        <v>0.87268543243408203</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>626</v>
       </c>
@@ -11244,13 +11847,16 @@
         <v>630</v>
       </c>
       <c r="K201">
-        <v>0</v>
-      </c>
-      <c r="L201" t="s">
+        <v>0.85996437072753906</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>632</v>
       </c>
@@ -11282,13 +11888,16 @@
         <v>635</v>
       </c>
       <c r="K202">
-        <v>0</v>
-      </c>
-      <c r="L202" t="s">
+        <v>0.84153181314468384</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+      <c r="M202" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>637</v>
       </c>
@@ -11320,13 +11929,16 @@
         <v>641</v>
       </c>
       <c r="K203">
-        <v>0</v>
-      </c>
-      <c r="L203" t="s">
+        <v>0.83849179744720459</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>643</v>
       </c>
@@ -11358,10 +11970,13 @@
         <v>647</v>
       </c>
       <c r="K204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99526321887969971</v>
+      </c>
+      <c r="L204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>648</v>
       </c>
@@ -11393,13 +12008,16 @@
         <v>652</v>
       </c>
       <c r="K205">
-        <v>0</v>
-      </c>
-      <c r="L205" t="s">
+        <v>0.83836144208908081</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+      <c r="M205" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>654</v>
       </c>
@@ -11431,10 +12049,13 @@
         <v>658</v>
       </c>
       <c r="K206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.97819864749908447</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>659</v>
       </c>
@@ -11466,10 +12087,13 @@
         <v>658</v>
       </c>
       <c r="K207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.97819864749908447</v>
+      </c>
+      <c r="L207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>660</v>
       </c>
@@ -11503,8 +12127,11 @@
       <c r="K208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>662</v>
       </c>
@@ -11536,13 +12163,16 @@
         <v>666</v>
       </c>
       <c r="K209">
-        <v>0</v>
-      </c>
-      <c r="L209" t="s">
+        <v>0.95672082901000977</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+      <c r="M209" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>668</v>
       </c>
@@ -11574,13 +12204,16 @@
         <v>672</v>
       </c>
       <c r="K210">
-        <v>0</v>
-      </c>
-      <c r="L210" t="s">
+        <v>0.64342325925827026</v>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+      <c r="M210" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>674</v>
       </c>
@@ -11612,10 +12245,13 @@
         <v>14</v>
       </c>
       <c r="K211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>676</v>
       </c>
@@ -11647,10 +12283,13 @@
         <v>14</v>
       </c>
       <c r="K212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>678</v>
       </c>
@@ -11682,13 +12321,16 @@
         <v>682</v>
       </c>
       <c r="K213">
-        <v>1</v>
-      </c>
-      <c r="L213" t="s">
+        <v>0.89455866813659668</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+      <c r="M213" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>683</v>
       </c>
@@ -11722,8 +12364,11 @@
       <c r="K214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>685</v>
       </c>
@@ -11757,8 +12402,11 @@
       <c r="K215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>687</v>
       </c>
@@ -11792,8 +12440,11 @@
       <c r="K216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>689</v>
       </c>
@@ -11827,8 +12478,11 @@
       <c r="K217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>691</v>
       </c>
@@ -11860,10 +12514,13 @@
         <v>14</v>
       </c>
       <c r="K218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>693</v>
       </c>
@@ -11897,8 +12554,11 @@
       <c r="K219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>695</v>
       </c>
@@ -11930,10 +12590,13 @@
         <v>14</v>
       </c>
       <c r="K220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>697</v>
       </c>
@@ -11965,10 +12628,13 @@
         <v>14</v>
       </c>
       <c r="K221">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>699</v>
       </c>
@@ -12000,10 +12666,13 @@
         <v>14</v>
       </c>
       <c r="K222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>701</v>
       </c>
@@ -12037,8 +12706,11 @@
       <c r="K223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>703</v>
       </c>
@@ -12070,13 +12742,16 @@
         <v>707</v>
       </c>
       <c r="K224">
-        <v>0</v>
-      </c>
-      <c r="L224" t="s">
+        <v>0.91725683212280273</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>709</v>
       </c>
@@ -12108,13 +12783,16 @@
         <v>713</v>
       </c>
       <c r="K225">
-        <v>0</v>
-      </c>
-      <c r="L225" t="s">
+        <v>0.81474387645721436</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>715</v>
       </c>
@@ -12146,13 +12824,16 @@
         <v>719</v>
       </c>
       <c r="K226">
-        <v>0</v>
-      </c>
-      <c r="L226" t="s">
+        <v>0.9306255578994751</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>721</v>
       </c>
@@ -12184,13 +12865,16 @@
         <v>725</v>
       </c>
       <c r="K227">
-        <v>1</v>
-      </c>
-      <c r="L227" t="s">
+        <v>0.92183941602706909</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>727</v>
       </c>
@@ -12222,13 +12906,16 @@
         <v>731</v>
       </c>
       <c r="K228">
-        <v>0</v>
-      </c>
-      <c r="L228" t="s">
+        <v>0.55835419893264771</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>733</v>
       </c>
@@ -12260,13 +12947,16 @@
         <v>737</v>
       </c>
       <c r="K229">
-        <v>0</v>
-      </c>
-      <c r="L229" t="s">
+        <v>0.65116262435913086</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>739</v>
       </c>
@@ -12298,13 +12988,16 @@
         <v>195</v>
       </c>
       <c r="K230">
-        <v>1</v>
-      </c>
-      <c r="L230" t="s">
+        <v>0.94465839862823486</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+      <c r="M230" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>744</v>
       </c>
@@ -12336,13 +13029,16 @@
         <v>748</v>
       </c>
       <c r="K231">
-        <v>1</v>
-      </c>
-      <c r="L231" t="s">
+        <v>0.80366110801696777</v>
+      </c>
+      <c r="L231">
+        <v>1</v>
+      </c>
+      <c r="M231" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>750</v>
       </c>
@@ -12374,13 +13070,16 @@
         <v>754</v>
       </c>
       <c r="K232">
-        <v>0</v>
-      </c>
-      <c r="L232" t="s">
+        <v>0.91832661628723145</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>756</v>
       </c>
@@ -12412,13 +13111,16 @@
         <v>760</v>
       </c>
       <c r="K233">
-        <v>0</v>
-      </c>
-      <c r="L233" t="s">
+        <v>0.8265344500541687</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>762</v>
       </c>
@@ -12450,13 +13152,16 @@
         <v>766</v>
       </c>
       <c r="K234">
-        <v>0</v>
-      </c>
-      <c r="L234" t="s">
+        <v>0.95199811458587646</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>768</v>
       </c>
@@ -12488,13 +13193,16 @@
         <v>772</v>
       </c>
       <c r="K235">
-        <v>0</v>
-      </c>
-      <c r="L235" t="s">
+        <v>0.65048784017562866</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+      <c r="M235" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>774</v>
       </c>
@@ -12526,13 +13234,16 @@
         <v>778</v>
       </c>
       <c r="K236">
-        <v>1</v>
-      </c>
-      <c r="L236" t="s">
+        <v>0.99016529321670532</v>
+      </c>
+      <c r="L236">
+        <v>1</v>
+      </c>
+      <c r="M236" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>779</v>
       </c>
@@ -12564,13 +13275,16 @@
         <v>783</v>
       </c>
       <c r="K237">
-        <v>0</v>
-      </c>
-      <c r="L237" t="s">
+        <v>0.94338977336883545</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+      <c r="M237" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>785</v>
       </c>
@@ -12602,13 +13316,16 @@
         <v>789</v>
       </c>
       <c r="K238">
-        <v>1</v>
-      </c>
-      <c r="L238" t="s">
+        <v>0.97606837749481201</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>791</v>
       </c>
@@ -12640,13 +13357,16 @@
         <v>795</v>
       </c>
       <c r="K239">
-        <v>0</v>
-      </c>
-      <c r="L239" t="s">
+        <v>0.94965106248855591</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+      <c r="M239" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>797</v>
       </c>
@@ -12678,13 +13398,16 @@
         <v>801</v>
       </c>
       <c r="K240">
-        <v>0</v>
-      </c>
-      <c r="L240" t="s">
+        <v>0.94449388980865479</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>803</v>
       </c>
@@ -12716,13 +13439,16 @@
         <v>807</v>
       </c>
       <c r="K241">
-        <v>0</v>
-      </c>
-      <c r="L241" t="s">
+        <v>0.50890600681304932</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+      <c r="M241" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>809</v>
       </c>
@@ -12754,13 +13480,16 @@
         <v>813</v>
       </c>
       <c r="K242">
-        <v>0</v>
-      </c>
-      <c r="L242" t="s">
+        <v>0.92650461196899414</v>
+      </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
+      <c r="M242" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>815</v>
       </c>
@@ -12792,10 +13521,13 @@
         <v>819</v>
       </c>
       <c r="K243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.95352613925933838</v>
+      </c>
+      <c r="L243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>820</v>
       </c>
@@ -12827,13 +13559,16 @@
         <v>824</v>
       </c>
       <c r="K244">
-        <v>1</v>
-      </c>
-      <c r="L244" t="s">
+        <v>0.97320038080215454</v>
+      </c>
+      <c r="L244">
+        <v>1</v>
+      </c>
+      <c r="M244" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>826</v>
       </c>
@@ -12865,13 +13600,16 @@
         <v>830</v>
       </c>
       <c r="K245">
-        <v>1</v>
-      </c>
-      <c r="L245" t="s">
+        <v>0.94559508562088013</v>
+      </c>
+      <c r="L245">
+        <v>1</v>
+      </c>
+      <c r="M245" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>832</v>
       </c>
@@ -12903,13 +13641,16 @@
         <v>836</v>
       </c>
       <c r="K246">
-        <v>0</v>
-      </c>
-      <c r="L246" t="s">
+        <v>0.96373730897903442</v>
+      </c>
+      <c r="L246">
+        <v>0</v>
+      </c>
+      <c r="M246" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>838</v>
       </c>
@@ -12941,10 +13682,13 @@
         <v>842</v>
       </c>
       <c r="K247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.72893285751342773</v>
+      </c>
+      <c r="L247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>843</v>
       </c>
@@ -12976,13 +13720,16 @@
         <v>847</v>
       </c>
       <c r="K248">
-        <v>1</v>
-      </c>
-      <c r="L248" t="s">
+        <v>0.86447840929031372</v>
+      </c>
+      <c r="L248">
+        <v>1</v>
+      </c>
+      <c r="M248" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>849</v>
       </c>
@@ -13014,10 +13761,13 @@
         <v>853</v>
       </c>
       <c r="K249">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.95130789279937744</v>
+      </c>
+      <c r="L249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>854</v>
       </c>
@@ -13049,10 +13799,13 @@
         <v>858</v>
       </c>
       <c r="K250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.97035801410675049</v>
+      </c>
+      <c r="L250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>859</v>
       </c>
@@ -13084,13 +13837,16 @@
         <v>863</v>
       </c>
       <c r="K251">
-        <v>0</v>
-      </c>
-      <c r="L251" t="s">
+        <v>0.79471039772033691</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>865</v>
       </c>
@@ -13122,10 +13878,13 @@
         <v>869</v>
       </c>
       <c r="K252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.84738755226135254</v>
+      </c>
+      <c r="L252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>870</v>
       </c>
@@ -13157,13 +13916,16 @@
         <v>874</v>
       </c>
       <c r="K253">
-        <v>0</v>
-      </c>
-      <c r="L253" t="s">
+        <v>0.78439128398895264</v>
+      </c>
+      <c r="L253">
+        <v>0</v>
+      </c>
+      <c r="M253" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>876</v>
       </c>
@@ -13195,13 +13957,16 @@
         <v>737</v>
       </c>
       <c r="K254">
-        <v>1</v>
-      </c>
-      <c r="L254" t="s">
+        <v>0.65637856721878052</v>
+      </c>
+      <c r="L254">
+        <v>1</v>
+      </c>
+      <c r="M254" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>880</v>
       </c>
@@ -13233,13 +13998,16 @@
         <v>884</v>
       </c>
       <c r="K255">
-        <v>1</v>
-      </c>
-      <c r="L255" t="s">
+        <v>0.94542896747589111</v>
+      </c>
+      <c r="L255">
+        <v>1</v>
+      </c>
+      <c r="M255" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>886</v>
       </c>
@@ -13271,13 +14039,16 @@
         <v>890</v>
       </c>
       <c r="K256">
-        <v>0</v>
-      </c>
-      <c r="L256" t="s">
+        <v>0.41319823265075678</v>
+      </c>
+      <c r="L256">
+        <v>0</v>
+      </c>
+      <c r="M256" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>892</v>
       </c>
@@ -13309,13 +14080,16 @@
         <v>896</v>
       </c>
       <c r="K257">
-        <v>1</v>
-      </c>
-      <c r="L257" t="s">
+        <v>0.98588740825653076</v>
+      </c>
+      <c r="L257">
+        <v>1</v>
+      </c>
+      <c r="M257" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>897</v>
       </c>
@@ -13347,13 +14121,16 @@
         <v>901</v>
       </c>
       <c r="K258">
-        <v>0</v>
-      </c>
-      <c r="L258" t="s">
+        <v>0.86412155628204346</v>
+      </c>
+      <c r="L258">
+        <v>0</v>
+      </c>
+      <c r="M258" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>903</v>
       </c>
@@ -13385,13 +14162,16 @@
         <v>907</v>
       </c>
       <c r="K259">
-        <v>0</v>
-      </c>
-      <c r="L259" t="s">
+        <v>0.73132544755935669</v>
+      </c>
+      <c r="L259">
+        <v>0</v>
+      </c>
+      <c r="M259" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>909</v>
       </c>
@@ -13423,13 +14203,16 @@
         <v>913</v>
       </c>
       <c r="K260">
-        <v>0</v>
-      </c>
-      <c r="L260" t="s">
+        <v>0.94834697246551514</v>
+      </c>
+      <c r="L260">
+        <v>0</v>
+      </c>
+      <c r="M260" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>915</v>
       </c>
@@ -13461,13 +14244,16 @@
         <v>919</v>
       </c>
       <c r="K261">
-        <v>0</v>
-      </c>
-      <c r="L261" t="s">
+        <v>0.96699166297912598</v>
+      </c>
+      <c r="L261">
+        <v>0</v>
+      </c>
+      <c r="M261" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>921</v>
       </c>
@@ -13499,13 +14285,16 @@
         <v>925</v>
       </c>
       <c r="K262">
-        <v>0</v>
-      </c>
-      <c r="L262" t="s">
+        <v>0.96292328834533691</v>
+      </c>
+      <c r="L262">
+        <v>0</v>
+      </c>
+      <c r="M262" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>927</v>
       </c>
@@ -13537,13 +14326,16 @@
         <v>931</v>
       </c>
       <c r="K263">
-        <v>1</v>
-      </c>
-      <c r="L263" t="s">
+        <v>0.90363860130310059</v>
+      </c>
+      <c r="L263">
+        <v>1</v>
+      </c>
+      <c r="M263" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>933</v>
       </c>
@@ -13575,13 +14367,16 @@
         <v>937</v>
       </c>
       <c r="K264">
-        <v>0</v>
-      </c>
-      <c r="L264" t="s">
+        <v>0.75614339113235474</v>
+      </c>
+      <c r="L264">
+        <v>0</v>
+      </c>
+      <c r="M264" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>939</v>
       </c>
@@ -13613,13 +14408,16 @@
         <v>943</v>
       </c>
       <c r="K265">
-        <v>0</v>
-      </c>
-      <c r="L265" t="s">
+        <v>0.51875102519989014</v>
+      </c>
+      <c r="L265">
+        <v>0</v>
+      </c>
+      <c r="M265" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>945</v>
       </c>
@@ -13651,13 +14449,16 @@
         <v>949</v>
       </c>
       <c r="K266">
-        <v>1</v>
-      </c>
-      <c r="L266" t="s">
+        <v>0.86835217475891113</v>
+      </c>
+      <c r="L266">
+        <v>1</v>
+      </c>
+      <c r="M266" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>951</v>
       </c>
@@ -13689,13 +14490,16 @@
         <v>955</v>
       </c>
       <c r="K267">
-        <v>0</v>
-      </c>
-      <c r="L267" t="s">
+        <v>0.95371079444885254</v>
+      </c>
+      <c r="L267">
+        <v>0</v>
+      </c>
+      <c r="M267" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>957</v>
       </c>
@@ -13727,13 +14531,16 @@
         <v>961</v>
       </c>
       <c r="K268">
-        <v>0</v>
-      </c>
-      <c r="L268" t="s">
+        <v>0.80642789602279663</v>
+      </c>
+      <c r="L268">
+        <v>0</v>
+      </c>
+      <c r="M268" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>963</v>
       </c>
@@ -13765,13 +14572,16 @@
         <v>967</v>
       </c>
       <c r="K269">
-        <v>0</v>
-      </c>
-      <c r="L269" t="s">
+        <v>0.94099646806716919</v>
+      </c>
+      <c r="L269">
+        <v>0</v>
+      </c>
+      <c r="M269" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>969</v>
       </c>
@@ -13803,13 +14613,16 @@
         <v>973</v>
       </c>
       <c r="K270">
-        <v>1</v>
-      </c>
-      <c r="L270" t="s">
+        <v>0.92388397455215454</v>
+      </c>
+      <c r="L270">
+        <v>1</v>
+      </c>
+      <c r="M270" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>975</v>
       </c>
@@ -13841,13 +14654,16 @@
         <v>979</v>
       </c>
       <c r="K271">
-        <v>1</v>
-      </c>
-      <c r="L271" t="s">
+        <v>0.96603178977966309</v>
+      </c>
+      <c r="L271">
+        <v>1</v>
+      </c>
+      <c r="M271" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>981</v>
       </c>
@@ -13879,13 +14695,16 @@
         <v>985</v>
       </c>
       <c r="K272">
-        <v>0</v>
-      </c>
-      <c r="L272" t="s">
+        <v>0.9298408031463623</v>
+      </c>
+      <c r="L272">
+        <v>0</v>
+      </c>
+      <c r="M272" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>987</v>
       </c>
@@ -13917,13 +14736,16 @@
         <v>991</v>
       </c>
       <c r="K273">
-        <v>1</v>
-      </c>
-      <c r="L273" t="s">
+        <v>0.97299081087112427</v>
+      </c>
+      <c r="L273">
+        <v>1</v>
+      </c>
+      <c r="M273" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>993</v>
       </c>
@@ -13955,13 +14777,16 @@
         <v>997</v>
       </c>
       <c r="K274">
-        <v>1</v>
-      </c>
-      <c r="L274" t="s">
+        <v>0.80226874351501465</v>
+      </c>
+      <c r="L274">
+        <v>1</v>
+      </c>
+      <c r="M274" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>999</v>
       </c>
@@ -13993,13 +14818,16 @@
         <v>1003</v>
       </c>
       <c r="K275">
-        <v>0</v>
-      </c>
-      <c r="L275" t="s">
+        <v>0.63314628601074219</v>
+      </c>
+      <c r="L275">
+        <v>0</v>
+      </c>
+      <c r="M275" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1005</v>
       </c>
@@ -14031,13 +14859,16 @@
         <v>1009</v>
       </c>
       <c r="K276">
-        <v>0</v>
-      </c>
-      <c r="L276" t="s">
+        <v>0.93313825130462646</v>
+      </c>
+      <c r="L276">
+        <v>0</v>
+      </c>
+      <c r="M276" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1011</v>
       </c>
@@ -14069,10 +14900,13 @@
         <v>1015</v>
       </c>
       <c r="K277">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.98617422580718994</v>
+      </c>
+      <c r="L277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1016</v>
       </c>
@@ -14106,8 +14940,11 @@
       <c r="K278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1018</v>
       </c>
@@ -14139,10 +14976,13 @@
         <v>1022</v>
       </c>
       <c r="K279">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1023</v>
       </c>
@@ -14174,10 +15014,13 @@
         <v>1027</v>
       </c>
       <c r="K280">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99557650089263916</v>
+      </c>
+      <c r="L280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1028</v>
       </c>
@@ -14209,10 +15052,13 @@
         <v>14</v>
       </c>
       <c r="K281">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1030</v>
       </c>
@@ -14244,13 +15090,16 @@
         <v>1034</v>
       </c>
       <c r="K282">
-        <v>1</v>
-      </c>
-      <c r="L282" t="s">
+        <v>0.9948614239692688</v>
+      </c>
+      <c r="L282">
+        <v>1</v>
+      </c>
+      <c r="M282" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1036</v>
       </c>
@@ -14282,13 +15131,16 @@
         <v>1040</v>
       </c>
       <c r="K283">
-        <v>0</v>
-      </c>
-      <c r="L283" t="s">
+        <v>0.77806401252746582</v>
+      </c>
+      <c r="L283">
+        <v>0</v>
+      </c>
+      <c r="M283" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>1042</v>
       </c>
@@ -14320,10 +15172,13 @@
         <v>1046</v>
       </c>
       <c r="K284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>1047</v>
       </c>
@@ -14355,10 +15210,13 @@
         <v>1051</v>
       </c>
       <c r="K285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99971646070480347</v>
+      </c>
+      <c r="L285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>1052</v>
       </c>
@@ -14390,13 +15248,16 @@
         <v>407</v>
       </c>
       <c r="K286">
-        <v>1</v>
-      </c>
-      <c r="L286" t="s">
+        <v>0.71431809663772583</v>
+      </c>
+      <c r="L286">
+        <v>1</v>
+      </c>
+      <c r="M286" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1057</v>
       </c>
@@ -14428,10 +15289,13 @@
         <v>1061</v>
       </c>
       <c r="K287">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.95169347524642944</v>
+      </c>
+      <c r="L287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1062</v>
       </c>
@@ -14463,10 +15327,13 @@
         <v>1066</v>
       </c>
       <c r="K288">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99207520484924316</v>
+      </c>
+      <c r="L288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>1067</v>
       </c>
@@ -14498,10 +15365,13 @@
         <v>1071</v>
       </c>
       <c r="K289">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99836480617523193</v>
+      </c>
+      <c r="L289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>1072</v>
       </c>
@@ -14535,8 +15405,11 @@
       <c r="K290">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>1074</v>
       </c>
@@ -14568,10 +15441,13 @@
         <v>14</v>
       </c>
       <c r="K291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1076</v>
       </c>
@@ -14603,10 +15479,13 @@
         <v>1080</v>
       </c>
       <c r="K292">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.9965590238571167</v>
+      </c>
+      <c r="L292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1081</v>
       </c>
@@ -14638,10 +15517,13 @@
         <v>470</v>
       </c>
       <c r="K293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99814939498901367</v>
+      </c>
+      <c r="L293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>1085</v>
       </c>
@@ -14673,13 +15555,16 @@
         <v>1089</v>
       </c>
       <c r="K294">
-        <v>1</v>
-      </c>
-      <c r="L294" t="s">
+        <v>0.99279904365539551</v>
+      </c>
+      <c r="L294">
+        <v>1</v>
+      </c>
+      <c r="M294" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>1091</v>
       </c>
@@ -14711,13 +15596,16 @@
         <v>1095</v>
       </c>
       <c r="K295">
-        <v>0</v>
-      </c>
-      <c r="L295" t="s">
+        <v>0.98680192232131958</v>
+      </c>
+      <c r="L295">
+        <v>0</v>
+      </c>
+      <c r="M295" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1097</v>
       </c>
@@ -14749,10 +15637,13 @@
         <v>1101</v>
       </c>
       <c r="K296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>1102</v>
       </c>
@@ -14786,8 +15677,11 @@
       <c r="K297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1104</v>
       </c>
@@ -14819,10 +15713,13 @@
         <v>429</v>
       </c>
       <c r="K298">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.98170864582061768</v>
+      </c>
+      <c r="L298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1108</v>
       </c>
@@ -14856,8 +15753,11 @@
       <c r="K299">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>1110</v>
       </c>
@@ -14889,13 +15789,16 @@
         <v>1114</v>
       </c>
       <c r="K300">
-        <v>1</v>
-      </c>
-      <c r="L300" t="s">
+        <v>0.88159060478210449</v>
+      </c>
+      <c r="L300">
+        <v>1</v>
+      </c>
+      <c r="M300" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>1115</v>
       </c>
@@ -14929,8 +15832,11 @@
       <c r="K301">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>1119</v>
       </c>
@@ -14962,10 +15868,13 @@
         <v>1123</v>
       </c>
       <c r="K302">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>1124</v>
       </c>
@@ -14997,13 +15906,16 @@
         <v>1128</v>
       </c>
       <c r="K303">
-        <v>0</v>
-      </c>
-      <c r="L303" t="s">
+        <v>0.96003472805023193</v>
+      </c>
+      <c r="L303">
+        <v>0</v>
+      </c>
+      <c r="M303" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>1130</v>
       </c>
@@ -15035,13 +15947,16 @@
         <v>1133</v>
       </c>
       <c r="K304">
-        <v>0</v>
-      </c>
-      <c r="L304" t="s">
+        <v>0.86676186323165894</v>
+      </c>
+      <c r="L304">
+        <v>0</v>
+      </c>
+      <c r="M304" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>1135</v>
       </c>
@@ -15075,8 +15990,11 @@
       <c r="K305">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>1137</v>
       </c>
@@ -15108,13 +16026,16 @@
         <v>1046</v>
       </c>
       <c r="K306">
-        <v>0</v>
-      </c>
-      <c r="L306" t="s">
+        <v>0.98807120323181152</v>
+      </c>
+      <c r="L306">
+        <v>0</v>
+      </c>
+      <c r="M306" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>1142</v>
       </c>
@@ -15146,10 +16067,13 @@
         <v>1146</v>
       </c>
       <c r="K307">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.9900166392326355</v>
+      </c>
+      <c r="L307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>1147</v>
       </c>
@@ -15181,10 +16105,13 @@
         <v>1151</v>
       </c>
       <c r="K308">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.9993901252746582</v>
+      </c>
+      <c r="L308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>1152</v>
       </c>
@@ -15216,10 +16143,13 @@
         <v>1051</v>
       </c>
       <c r="K309">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>1156</v>
       </c>
@@ -15251,10 +16181,13 @@
         <v>14</v>
       </c>
       <c r="K310">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>1158</v>
       </c>
@@ -15286,10 +16219,13 @@
         <v>107</v>
       </c>
       <c r="K311">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>1162</v>
       </c>
@@ -15323,8 +16259,11 @@
       <c r="K312">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>1164</v>
       </c>
@@ -15356,10 +16295,13 @@
         <v>1168</v>
       </c>
       <c r="K313">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>1169</v>
       </c>
@@ -15391,13 +16333,16 @@
         <v>1173</v>
       </c>
       <c r="K314">
-        <v>1</v>
-      </c>
-      <c r="L314" t="s">
+        <v>0.98589092493057251</v>
+      </c>
+      <c r="L314">
+        <v>1</v>
+      </c>
+      <c r="M314" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>1175</v>
       </c>
@@ -15431,8 +16376,11 @@
       <c r="K315">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>1180</v>
       </c>
@@ -15464,13 +16412,16 @@
         <v>1184</v>
       </c>
       <c r="K316">
-        <v>0</v>
-      </c>
-      <c r="L316" t="s">
+        <v>0.9779808521270752</v>
+      </c>
+      <c r="L316">
+        <v>0</v>
+      </c>
+      <c r="M316" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>1186</v>
       </c>
@@ -15502,10 +16453,13 @@
         <v>14</v>
       </c>
       <c r="K317">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>1188</v>
       </c>
@@ -15537,13 +16491,16 @@
         <v>1192</v>
       </c>
       <c r="K318">
-        <v>0</v>
-      </c>
-      <c r="L318" t="s">
+        <v>0.95661205053329468</v>
+      </c>
+      <c r="L318">
+        <v>0</v>
+      </c>
+      <c r="M318" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>1194</v>
       </c>
@@ -15575,13 +16532,16 @@
         <v>1198</v>
       </c>
       <c r="K319">
-        <v>0</v>
-      </c>
-      <c r="L319" t="s">
+        <v>0.98945659399032593</v>
+      </c>
+      <c r="L319">
+        <v>0</v>
+      </c>
+      <c r="M319" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>1200</v>
       </c>
@@ -15613,10 +16573,13 @@
         <v>14</v>
       </c>
       <c r="K320">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>1202</v>
       </c>
@@ -15648,10 +16611,13 @@
         <v>1206</v>
       </c>
       <c r="K321">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>1207</v>
       </c>
@@ -15683,10 +16649,13 @@
         <v>1211</v>
       </c>
       <c r="K322">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99925065040588379</v>
+      </c>
+      <c r="L322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>1212</v>
       </c>
@@ -15718,10 +16687,13 @@
         <v>1216</v>
       </c>
       <c r="K323">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99941515922546387</v>
+      </c>
+      <c r="L323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>1217</v>
       </c>
@@ -15753,10 +16725,13 @@
         <v>1221</v>
       </c>
       <c r="K324">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.99931132793426514</v>
+      </c>
+      <c r="L324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>1222</v>
       </c>
@@ -15790,8 +16765,11 @@
       <c r="K325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>1227</v>
       </c>
@@ -15823,13 +16801,16 @@
         <v>1231</v>
       </c>
       <c r="K326">
-        <v>0</v>
-      </c>
-      <c r="L326" t="s">
+        <v>0.99737995862960815</v>
+      </c>
+      <c r="L326">
+        <v>0</v>
+      </c>
+      <c r="M326" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>1233</v>
       </c>
@@ -15861,6 +16842,9 @@
         <v>14</v>
       </c>
       <c r="K327">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L327">
         <v>1</v>
       </c>
     </row>
@@ -15873,7 +16857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BA7170-CED1-4B6D-8831-11A25C6A2177}">
   <dimension ref="A1:B327"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B1048576"/>
     </sheetView>
   </sheetViews>
